--- a/画面項目定義/claim画面項目定義.xlsx
+++ b/画面項目定義/claim画面項目定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C500A7D-245A-419D-A95E-751F703CF6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30817A3-4447-4A01-AE96-5011F9B4C5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="14123" xr2:uid="{89C39DA3-0181-490C-BBC3-FEC1F13F9521}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{89C39DA3-0181-490C-BBC3-FEC1F13F9521}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,22 +71,6 @@
     <t>URLが正しいかチェック</t>
   </si>
   <si>
-    <r>
-      <t>main.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に遷移</t>
-    </r>
-  </si>
-  <si>
     <t>氏名</t>
   </si>
   <si>
@@ -149,6 +133,13 @@
   </si>
   <si>
     <t>フォームデータをサーバーにPOSTリクエスト</t>
+  </si>
+  <si>
+    <t>ホーム画面に遷移</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -219,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -558,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267117BF-04B8-4D47-9DB0-F50B92220652}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -570,7 +561,7 @@
     <col min="6" max="6" width="30.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52.9">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -607,72 +598,72 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="52.9">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:6" ht="35.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" ht="70.5">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="52.9">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:6" ht="35.25">
+      <c r="A6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="88.15">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -681,13 +672,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
